--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4705667-AF3B-4B53-963B-F97DB575F496}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76A36B-5F52-432E-93CB-6E8AD881F3BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -34,10 +43,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -355,28 +361,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76A36B-5F52-432E-93CB-6E8AD881F3BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CD535D-E7D8-478F-8F12-0FD90BDE1F61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
@@ -34,16 +34,10 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -361,35 +355,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
